--- a/data/academic_calendar_engineering_polito.xlsx
+++ b/data/academic_calendar_engineering_polito.xlsx
@@ -52,7 +52,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -79,7 +79,6 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -101,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -118,16 +117,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -850,7 +843,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>42932.0</v>
+        <v>43297.0</v>
       </c>
       <c r="B45" s="2">
         <v>43309.0</v>
@@ -936,7 +929,7 @@
       <c r="B2" s="2">
         <v>44349.0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
@@ -956,7 +949,7 @@
       <c r="B3" s="2">
         <v>44317.0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2">
@@ -976,7 +969,7 @@
       <c r="B4" s="2">
         <v>44291.0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2">
@@ -996,7 +989,7 @@
       <c r="B5" s="2">
         <v>44293.0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
@@ -1016,7 +1009,7 @@
       <c r="B6" s="2">
         <v>44202.0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1027,7 +1020,7 @@
       <c r="B7" s="2">
         <v>44172.0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="2">
@@ -1047,7 +1040,7 @@
       <c r="B8" s="2">
         <v>44136.0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="2">
@@ -1067,7 +1060,7 @@
       <c r="B9" s="2">
         <v>44059.0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="7">
@@ -1096,7 +1089,7 @@
       <c r="B10" s="2">
         <v>44006.0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2">
@@ -1125,7 +1118,7 @@
       <c r="B11" s="2">
         <v>43984.0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
@@ -1154,7 +1147,7 @@
       <c r="B12" s="2">
         <v>43952.0</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2">
@@ -1183,7 +1176,7 @@
       <c r="B13" s="2">
         <v>43946.0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2">
@@ -1212,7 +1205,7 @@
       <c r="B14" s="2">
         <v>43934.0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7">
@@ -1241,7 +1234,7 @@
       <c r="B15" s="2">
         <v>43836.0</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="7">
@@ -1302,10 +1295,10 @@
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>43122.0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>43162.0</v>
       </c>
       <c r="K17" s="3" t="s">
